--- a/Data/EC/NIT-9003963507.xlsx
+++ b/Data/EC/NIT-9003963507.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856ED27D-797D-436D-AEB3-0DEC78BD321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23EA2D57-AF6F-41D3-8F96-AC9C0F283CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7928E10E-F819-4E1F-AD1D-3B14425CAFCF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DF1BB30-A00E-4935-BC88-260F8DB92E31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,49 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047380341</t>
+  </si>
+  <si>
+    <t>MERY ISABEL ARZUZA TORRES</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1128045187</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES PEREZ LUJAN</t>
+  </si>
+  <si>
+    <t>1082878492</t>
+  </si>
+  <si>
+    <t>JOSE DAVID MONTES FERRADANEZ</t>
+  </si>
+  <si>
+    <t>73074492</t>
+  </si>
+  <si>
+    <t>JULIO CESAR MEZA URZOLA</t>
+  </si>
+  <si>
+    <t>1143334730</t>
+  </si>
+  <si>
+    <t>JORGE LEONARDO VALDEZ TAPIA</t>
+  </si>
+  <si>
     <t>73137385</t>
   </si>
   <si>
     <t>EDINSON MANUEL VENECIA PITALUA</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1082878492</t>
-  </si>
-  <si>
-    <t>JOSE DAVID MONTES FERRADANEZ</t>
-  </si>
-  <si>
-    <t>1143334730</t>
-  </si>
-  <si>
-    <t>JORGE LEONARDO VALDEZ TAPIA</t>
-  </si>
-  <si>
-    <t>73074492</t>
-  </si>
-  <si>
-    <t>JULIO CESAR MEZA URZOLA</t>
-  </si>
-  <si>
-    <t>1047380341</t>
-  </si>
-  <si>
-    <t>MERY ISABEL ARZUZA TORRES</t>
-  </si>
-  <si>
     <t>1047477071</t>
   </si>
   <si>
     <t>EDDY MANUEL GUTIERREZ OSORIO</t>
-  </si>
-  <si>
-    <t>1128045187</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES PEREZ LUJAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4967B84-4A65-AE47-AB5A-344622003089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8AD25E-FDD8-3392-7DB1-6E0152AF7FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4740B66-5128-4054-96D8-19DC8A3D66D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20157B7-A278-4508-A94C-3CC38EBA1B94}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13789</v>
+        <v>12887</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>644350</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>12887</v>
+        <v>16000</v>
       </c>
       <c r="G17" s="18">
-        <v>644350</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>12320</v>
+        <v>12887</v>
       </c>
       <c r="G18" s="18">
-        <v>616000</v>
+        <v>644350</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1142,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>12887</v>
+        <v>12320</v>
       </c>
       <c r="G20" s="18">
-        <v>644350</v>
+        <v>616000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1165,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>12320</v>
+        <v>13789</v>
       </c>
       <c r="G21" s="18">
-        <v>616000</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1188,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="24">
-        <v>16000</v>
+        <v>12320</v>
       </c>
       <c r="G22" s="24">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>

--- a/Data/EC/NIT-9003963507.xlsx
+++ b/Data/EC/NIT-9003963507.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23EA2D57-AF6F-41D3-8F96-AC9C0F283CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6770C4E2-5A9F-4FE7-BDA1-D9D1D1DB3C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DF1BB30-A00E-4935-BC88-260F8DB92E31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9619D94-7978-4A0C-8909-7E096D9E386D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -206,22 +206,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8AD25E-FDD8-3392-7DB1-6E0152AF7FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52F84D6-6D9B-CE11-1019-2D3AACE44698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20157B7-A278-4508-A94C-3CC38EBA1B94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A9F0-D299-47AC-A63A-2A23816C3421}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
